--- a/Goals_Hows_Afnemers.xlsx
+++ b/Goals_Hows_Afnemers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comites1-my.sharepoint.com/personal/c_dingemanse_comites_nl/Documents/BRK bevragingen/business requirements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://comites1-my.sharepoint.com/personal/c_dingemanse_comites_nl/Documents/BRK bevragingen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274B4F43-EBCA-450E-BBFF-659C51B651A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{29D00978-1662-40E8-9141-901F50C6FFB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{479CD920-1774-4C9B-AB97-ABAEB6209B73}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="367" windowWidth="20000" windowHeight="12733" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20000" windowHeight="12733" xr2:uid="{EED3A84A-6687-4746-A6A9-63F0484E92C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Actueel" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="153">
   <si>
     <t xml:space="preserve">invoeren nummeraanduiding, free query op postcode + huisnummer-letter-toevoeging, openbare ruimtenaam huisnummer-letter-toevoeging (fuzzy), kaart (contour, punt) </t>
   </si>
@@ -79,6 +79,427 @@
     <t>buitenlands natuurlijk persoon, niet natuurlijke persoon, maatschappelijke activiteit of vestiging</t>
   </si>
   <si>
+    <t>BUS38</t>
+  </si>
+  <si>
+    <t>BUS36</t>
+  </si>
+  <si>
+    <t>BUS26</t>
+  </si>
+  <si>
+    <t>BUS17</t>
+  </si>
+  <si>
+    <t>BUS11</t>
+  </si>
+  <si>
+    <t>BUS6</t>
+  </si>
+  <si>
+    <t>persoon vinden</t>
+  </si>
+  <si>
+    <t>kadastrale eigendommen van persoon vinden</t>
+  </si>
+  <si>
+    <t>alle zakelijke rechten van een persoon vinden</t>
+  </si>
+  <si>
+    <t>invoeren identificerend kenmerk van een persoon (BSN, KVKnr, RSIN, KadasterpersoonIdentificatie)</t>
+  </si>
+  <si>
+    <t>zakelijke rechten van persoon vinden</t>
+  </si>
+  <si>
+    <t>BUS32</t>
+  </si>
+  <si>
+    <t>BUS3</t>
+  </si>
+  <si>
+    <t>invoeren BAGID Pand</t>
+  </si>
+  <si>
+    <t>eigenaren Kadastraal roerende zaak</t>
+  </si>
+  <si>
+    <t>eigenaren vinden van een woonschip of woonwagen</t>
+  </si>
+  <si>
+    <t>BUS12</t>
+  </si>
+  <si>
+    <t>BUS35</t>
+  </si>
+  <si>
+    <t>BUS34</t>
+  </si>
+  <si>
+    <t>BUS33</t>
+  </si>
+  <si>
+    <t>BUS31</t>
+  </si>
+  <si>
+    <t>BUS28</t>
+  </si>
+  <si>
+    <t>BUS5</t>
+  </si>
+  <si>
+    <t>BUS1</t>
+  </si>
+  <si>
+    <t>eigenaren kadastraal Onroerende Zaken</t>
+  </si>
+  <si>
+    <t>zekerheidsstellingen vinden van kadastraal roerende zaak (woonschip of woonwagen, vliegtuigen en boten)</t>
+  </si>
+  <si>
+    <t>zekerheidsstellingen hypotheekverstrekker vinden</t>
+  </si>
+  <si>
+    <t>kadastrale objecten met een zekerheidsstelling door hyotheeknemer</t>
+  </si>
+  <si>
+    <t>zekerheidsstellingen van hypotheekverstrekker vinden</t>
+  </si>
+  <si>
+    <t>BUS16</t>
+  </si>
+  <si>
+    <t>invoeren kadastrale identificatie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadastraal onroerende Zaken </t>
+  </si>
+  <si>
+    <t>kadastraal onroerende zaak vinden</t>
+  </si>
+  <si>
+    <t>A. zoek persoon</t>
+  </si>
+  <si>
+    <t>A+1. zoek kadastrale eigendommen van persoon</t>
+  </si>
+  <si>
+    <t>A+2. zoek alle zakelijke rechten van een persoon</t>
+  </si>
+  <si>
+    <t>A+3. zoek zekerheidsstellingen hypotheeknemer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigenaren vinden van een kadastraal onroerende zaak </t>
+  </si>
+  <si>
+    <t>B. zoek Kadastraal Onroerende Zaak</t>
+  </si>
+  <si>
+    <t>kadastraal roerende zaken</t>
+  </si>
+  <si>
+    <t>kadastraal roerende zaken vinden</t>
+  </si>
+  <si>
+    <t>zakelijk gerechtigden vinden van woonschip of woonwagen</t>
+  </si>
+  <si>
+    <t>zakelijk gerechtigden Kadastraal roerende zaak</t>
+  </si>
+  <si>
+    <t>zakelijk gerechtigden kadastraal onroerende zaak</t>
+  </si>
+  <si>
+    <t>BUS10</t>
+  </si>
+  <si>
+    <t>WHATS</t>
+  </si>
+  <si>
+    <t>HOWS</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+  </si>
+  <si>
+    <t>GOALS</t>
+  </si>
+  <si>
+    <t>STORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoeren kadastrale identificatie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zekerheidsstellingen vinden van een kadastraal roerende zaak </t>
+  </si>
+  <si>
+    <t xml:space="preserve">zekerheidsstellingen (hypotheekverstrekker + stukdeel) kadastraal roerende zaken </t>
+  </si>
+  <si>
+    <t>B+1. zoek zakelijk gerechtigden en hun rechten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakelijk gerechtigden en hun rechten vinden </t>
+  </si>
+  <si>
+    <t>zakelijk gerechtigden en hun rechten vinden van een Kadastrale onroerende zaak</t>
+  </si>
+  <si>
+    <t>B+2. zoek eigenaren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigenaren Kadastraal Onroerende Zaak en hun aandeel, inclusief het gezamenlijk aandeel </t>
+  </si>
+  <si>
+    <t>zakelijk rechten en de bijbehorende gerechtigden inclusief de stapeling en gezamenlijk aandeel</t>
+  </si>
+  <si>
+    <t>kadastrale objecten (roerende en onroerende zaken) in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
+  </si>
+  <si>
+    <t>kadastrale objecten met een zakelijk recht van een persoon, inclusief het gezamenlijk aandeel</t>
+  </si>
+  <si>
+    <t>zekerheidsstellingen hypothecair + link naar de akte kadastraal onroerende zaken</t>
+  </si>
+  <si>
+    <t>hypotheken vinden van kadastraal onroerende zaak en betrokkenen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypotheken en betrokkenen vinden </t>
+  </si>
+  <si>
+    <t>invoeren contour</t>
+  </si>
+  <si>
+    <t>B+3. zoek zekerheidsstellingen + hypotheeknemer en gever + akte</t>
+  </si>
+  <si>
+    <t>alle eigenaren van kadastraal onroerende zaken in een pand vinden</t>
+  </si>
+  <si>
+    <t>alle eigenaren van kadastraal onroerende zaken in een gebied vinden</t>
+  </si>
+  <si>
+    <t>eigenaren vinden van alle kadastraal onroerende zaken in een gebied</t>
+  </si>
+  <si>
+    <t>eigenaren vinden van een woonschip/woonwagen</t>
+  </si>
+  <si>
+    <t>aantal eigendommen van een persoon vinden</t>
+  </si>
+  <si>
+    <t>het aantal kadastrale objecten (roerende en onroerende zaken) in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
+  </si>
+  <si>
+    <t>A+4 zoek het aantal kadastrale objecten in eigendom van een persoon</t>
+  </si>
+  <si>
+    <t>aantal kadastrale eigendommen van persoon vinden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aktes van KOZ vinden en inzien </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aktes vinden van een kadastraal roerende zaak </t>
+  </si>
+  <si>
+    <t>aktes van KOZ</t>
+  </si>
+  <si>
+    <t>publiekrechtelijke beperkingen vinden en inzien</t>
+  </si>
+  <si>
+    <t>privaatrechtelijke beperkingen vinden en inzien</t>
+  </si>
+  <si>
+    <t>Zoek beslagleggingen door persoon</t>
+  </si>
+  <si>
+    <t>A+5 zoek beslagleggingen door persoon</t>
+  </si>
+  <si>
+    <t>invoeren identificerend kenmerk van een persoon (BSN, KVKnr, RSIN, KadasterpersoonIdentificatie) + periodeVanTotEnMet</t>
+  </si>
+  <si>
+    <t>kadastrale objecten waarop beslag is gelegd gedurende de opgegeven periode</t>
+  </si>
+  <si>
+    <t>beslagleggingen door persoon vinden</t>
+  </si>
+  <si>
+    <t>B+4. eigenschappen KOZ</t>
+  </si>
+  <si>
+    <t>eigenschappen</t>
+  </si>
+  <si>
+    <t>eigenschappen raadplegen</t>
+  </si>
+  <si>
+    <t>alle VVE's van een pand vinden</t>
+  </si>
+  <si>
+    <t>VVE's Pand</t>
+  </si>
+  <si>
+    <t>VVE's vinden van een pand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigenaren kadastraal Onroerende Zaken (perceel, appartmentsrecht, verblijfsobject, berging of parkeergarage) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">eigenaren vinden van alle kadastraal onroerende zaken in een pand (perceel, appartmentsrecht, verblijfsobject, berging of parkeergarage) </t>
+  </si>
+  <si>
+    <t>erfpachtscontracten van zakelijk gerechtigde die binnen de opgegeven periode worden beeindigd</t>
+  </si>
+  <si>
+    <t>kadastrale objecten waarvan het erfpachtcontract eindigt gedurende de opgegeven periode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A+6 zoek aflopende erfpachtscontracten van persoon (= erfpachtgever) </t>
+  </si>
+  <si>
+    <t>aflopende erfpachtcontracten</t>
+  </si>
+  <si>
+    <t>publiekrechtelijke beperkingen + stuk</t>
+  </si>
+  <si>
+    <t>privaatrechtelijke beperkingen vinden van een kadastraal roerende zaak + stuk</t>
+  </si>
+  <si>
+    <t>publiekrechtelijke beperkingen vinden van een kadastraal roerende zaak +stuk</t>
+  </si>
+  <si>
+    <t>beslagleggingen vinden en inzien</t>
+  </si>
+  <si>
+    <t>beslagleggingen +stuk</t>
+  </si>
+  <si>
+    <t>beslagleggingen + stuk</t>
+  </si>
+  <si>
+    <t>B+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B+6. raadpleeg publiekrechtelijke beperkingen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">B+7. raadpleeg privaatrechtelijke beperkingen </t>
+  </si>
+  <si>
+    <t>B+8. raadpleeg beslagleggingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koopsommen met bijbehorend koopjaar vinden </t>
+  </si>
+  <si>
+    <t>C. zoek Kadastraal roerende Zaak</t>
+  </si>
+  <si>
+    <t>C+1. zoek eigenaren van KOZ</t>
+  </si>
+  <si>
+    <t>C+2. zoek zakelijk gerechtigden van KOZ</t>
+  </si>
+  <si>
+    <t>C+3. zoek zekerheidsstellingen (+ hypotheekverstrekker + stukdeel) van KOZ</t>
+  </si>
+  <si>
+    <t>D. zoek het eigendomsrecht en de tenaamstelling van Kadastraal Onroerende Zaken in een Pand</t>
+  </si>
+  <si>
+    <t>F. zoek de VVE's in een Pand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G. Zoek koopsommen met koopjaar </t>
+  </si>
+  <si>
+    <t>invoeren gemeente of invoeren contour+ periode VanTotEnMet</t>
+  </si>
+  <si>
+    <t>koopsommen + bijbehorende koopjaren</t>
+  </si>
+  <si>
+    <t>koopsommen met koopjaren vinden</t>
+  </si>
+  <si>
+    <t>BUS37</t>
+  </si>
+  <si>
+    <t>BUS30</t>
+  </si>
+  <si>
+    <t>BUS25</t>
+  </si>
+  <si>
+    <t>BUS23</t>
+  </si>
+  <si>
+    <t>BUS22</t>
+  </si>
+  <si>
+    <t>BUS20</t>
+  </si>
+  <si>
+    <t>BUS19</t>
+  </si>
+  <si>
+    <t>BUS18</t>
+  </si>
+  <si>
+    <t>BUS16/hypotheek</t>
+  </si>
+  <si>
+    <t>BUS15 makelaar</t>
+  </si>
+  <si>
+    <t>BUS14</t>
+  </si>
+  <si>
+    <t>BUS9</t>
+  </si>
+  <si>
+    <t>BUS7</t>
+  </si>
+  <si>
+    <t>zekerheidsstellingen hypotheekschulden vinden</t>
+  </si>
+  <si>
+    <t>A+4 zoek zekerheidsstellingen hypotheekgever</t>
+  </si>
+  <si>
+    <t>kadastrale objecten met een zekerheidsstelling door hyotheekgever</t>
+  </si>
+  <si>
+    <t>zekerheidsstellingen van hypotheekschulden vinden</t>
+  </si>
+  <si>
+    <t>BUS4</t>
+  </si>
+  <si>
+    <t>BUS2</t>
+  </si>
+  <si>
+    <t>E. zoek het eigendomsrecht en de tenaamstelling van Kadastraal Onroerende Zaken in een Gebied
+ (eerst via de locatieserver wordt op basis van de contour een collectie KOZ-id's opgehaald en die zijn input voor de bevraging. )</t>
+  </si>
+  <si>
+    <t>PRIO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">eigenaren vinden van een kadastraal onroerende zaak </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -87,7 +508,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>free query op ingeschreven personen (buiten scope)</t>
+      <t>(inclusief adressen van kadasterpersonen)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zoeken ingeschreven natuurlijke personen (buiten scope)</t>
     </r>
     <r>
       <rPr>
@@ -101,330 +534,6 @@
     </r>
   </si>
   <si>
-    <t>BUS38</t>
-  </si>
-  <si>
-    <t>BUS36</t>
-  </si>
-  <si>
-    <t>BUS26</t>
-  </si>
-  <si>
-    <t>BUS17</t>
-  </si>
-  <si>
-    <t>BUS11</t>
-  </si>
-  <si>
-    <t>BUS6</t>
-  </si>
-  <si>
-    <t>persoon vinden</t>
-  </si>
-  <si>
-    <t>kadastrale eigendommen van persoon vinden</t>
-  </si>
-  <si>
-    <t>alle zakelijke rechten van een persoon vinden</t>
-  </si>
-  <si>
-    <t>invoeren identificerend kenmerk van een persoon (BSN, KVKnr, RSIN, KadasterpersoonIdentificatie)</t>
-  </si>
-  <si>
-    <t>zakelijke rechten van persoon vinden</t>
-  </si>
-  <si>
-    <t>BUS32</t>
-  </si>
-  <si>
-    <t>BUS3</t>
-  </si>
-  <si>
-    <t>eigenaren vinden van een kadastraal onroerende zaak</t>
-  </si>
-  <si>
-    <t>invoeren BAGID Pand</t>
-  </si>
-  <si>
-    <t>eigenaren Kadastraal roerende zaak</t>
-  </si>
-  <si>
-    <t>eigenaren vinden van een woonschip of woonwagen</t>
-  </si>
-  <si>
-    <t>BUS12</t>
-  </si>
-  <si>
-    <t>BUS35</t>
-  </si>
-  <si>
-    <t>BUS34</t>
-  </si>
-  <si>
-    <t>BUS33</t>
-  </si>
-  <si>
-    <t>BUS31</t>
-  </si>
-  <si>
-    <t>BUS28</t>
-  </si>
-  <si>
-    <t>BUS5</t>
-  </si>
-  <si>
-    <t>BUS1</t>
-  </si>
-  <si>
-    <t>eigenaren kadastraal Onroerende Zaken</t>
-  </si>
-  <si>
-    <t>zekerheidsstellingen vinden van kadastraal roerende zaak (woonschip of woonwagen, vliegtuigen en boten)</t>
-  </si>
-  <si>
-    <t>zekerheidsstellingen hypotheekverstrekker vinden</t>
-  </si>
-  <si>
-    <t>kadastrale objecten met een zekerheidsstelling door hyotheeknemer</t>
-  </si>
-  <si>
-    <t>zekerheidsstellingen van hypotheekverstrekker vinden</t>
-  </si>
-  <si>
-    <t>BUS16</t>
-  </si>
-  <si>
-    <t>invoeren kadastrale identificatie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kadastraal onroerende Zaken </t>
-  </si>
-  <si>
-    <t>kadastraal onroerende zaak vinden</t>
-  </si>
-  <si>
-    <t>A. zoek persoon</t>
-  </si>
-  <si>
-    <t>A+1. zoek kadastrale eigendommen van persoon</t>
-  </si>
-  <si>
-    <t>A+2. zoek alle zakelijke rechten van een persoon</t>
-  </si>
-  <si>
-    <t>A+3. zoek zekerheidsstellingen hypotheeknemer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eigenaren vinden van een kadastraal onroerende zaak </t>
-  </si>
-  <si>
-    <t>B. zoek Kadastraal Onroerende Zaak</t>
-  </si>
-  <si>
-    <t>kadastraal roerende zaken</t>
-  </si>
-  <si>
-    <t>kadastraal roerende zaken vinden</t>
-  </si>
-  <si>
-    <t>zakelijk gerechtigden vinden van woonschip of woonwagen</t>
-  </si>
-  <si>
-    <t>zakelijk gerechtigden Kadastraal roerende zaak</t>
-  </si>
-  <si>
-    <t>zakelijk gerechtigden kadastraal onroerende zaak</t>
-  </si>
-  <si>
-    <t>BUS10</t>
-  </si>
-  <si>
-    <t>WHATS</t>
-  </si>
-  <si>
-    <t>HOWS</t>
-  </si>
-  <si>
-    <t>INPUT</t>
-  </si>
-  <si>
-    <t>OUTPUT</t>
-  </si>
-  <si>
-    <t>GOALS</t>
-  </si>
-  <si>
-    <t>STORIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoeren kadastrale identificatie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zekerheidsstellingen vinden van een kadastraal roerende zaak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zekerheidsstellingen (hypotheekverstrekker + stukdeel) kadastraal roerende zaken </t>
-  </si>
-  <si>
-    <t>B+1. zoek zakelijk gerechtigden en hun rechten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zakelijk gerechtigden en hun rechten vinden </t>
-  </si>
-  <si>
-    <t>zakelijk gerechtigden en hun rechten vinden van een Kadastrale onroerende zaak</t>
-  </si>
-  <si>
-    <t>B+2. zoek eigenaren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eigenaren Kadastraal Onroerende Zaak en hun aandeel, inclusief het gezamenlijk aandeel </t>
-  </si>
-  <si>
-    <t>zakelijk rechten en de bijbehorende gerechtigden inclusief de stapeling en gezamenlijk aandeel</t>
-  </si>
-  <si>
-    <t>kadastrale objecten (roerende en onroerende zaken) in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
-  </si>
-  <si>
-    <t>kadastrale objecten met een zakelijk recht van een persoon, inclusief het gezamenlijk aandeel</t>
-  </si>
-  <si>
-    <t>zekerheidsstellingen hypothecair + link naar de akte kadastraal onroerende zaken</t>
-  </si>
-  <si>
-    <t>hypotheken vinden van kadastraal onroerende zaak en betrokkenen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hypotheken en betrokkenen vinden </t>
-  </si>
-  <si>
-    <t>invoeren contour</t>
-  </si>
-  <si>
-    <t>B+3. zoek zekerheidsstellingen + hypotheeknemer en gever + akte</t>
-  </si>
-  <si>
-    <t>alle eigenaren van kadastraal onroerende zaken in een pand vinden</t>
-  </si>
-  <si>
-    <t>alle eigenaren van kadastraal onroerende zaken in een gebied vinden</t>
-  </si>
-  <si>
-    <t>eigenaren vinden van alle kadastraal onroerende zaken in een gebied</t>
-  </si>
-  <si>
-    <t>eigenaren vinden van een woonschip/woonwagen</t>
-  </si>
-  <si>
-    <t>aantal eigendommen van een persoon vinden</t>
-  </si>
-  <si>
-    <t>het aantal kadastrale objecten (roerende en onroerende zaken) in eigendom van een persoon, inclusief het gezamenlijk aandeel</t>
-  </si>
-  <si>
-    <t>A+4 zoek het aantal kadastrale objecten in eigendom van een persoon</t>
-  </si>
-  <si>
-    <t>aantal kadastrale eigendommen van persoon vinden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aktes van KOZ vinden en inzien </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aktes vinden van een kadastraal roerende zaak </t>
-  </si>
-  <si>
-    <t>aktes van KOZ</t>
-  </si>
-  <si>
-    <t>publiekrechtelijke beperkingen vinden en inzien</t>
-  </si>
-  <si>
-    <t>privaatrechtelijke beperkingen vinden en inzien</t>
-  </si>
-  <si>
-    <t>Zoek beslagleggingen door persoon</t>
-  </si>
-  <si>
-    <t>A+5 zoek beslagleggingen door persoon</t>
-  </si>
-  <si>
-    <t>invoeren identificerend kenmerk van een persoon (BSN, KVKnr, RSIN, KadasterpersoonIdentificatie) + periodeVanTotEnMet</t>
-  </si>
-  <si>
-    <t>kadastrale objecten waarop beslag is gelegd gedurende de opgegeven periode</t>
-  </si>
-  <si>
-    <t>beslagleggingen door persoon vinden</t>
-  </si>
-  <si>
-    <t>B+4. eigenschappen KOZ</t>
-  </si>
-  <si>
-    <t>eigenschappen</t>
-  </si>
-  <si>
-    <t>eigenschappen raadplegen</t>
-  </si>
-  <si>
-    <t>alle VVE's van een pand vinden</t>
-  </si>
-  <si>
-    <t>VVE's Pand</t>
-  </si>
-  <si>
-    <t>VVE's vinden van een pand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eigenaren kadastraal Onroerende Zaken (perceel, appartmentsrecht, verblijfsobject, berging of parkeergarage) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">eigenaren vinden van alle kadastraal onroerende zaken in een pand (perceel, appartmentsrecht, verblijfsobject, berging of parkeergarage) </t>
-  </si>
-  <si>
-    <t>erfpachtscontracten van zakelijk gerechtigde die binnen de opgegeven periode worden beeindigd</t>
-  </si>
-  <si>
-    <t>kadastrale objecten waarvan het erfpachtcontract eindigt gedurende de opgegeven periode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A+6 zoek aflopende erfpachtscontracten van persoon (= erfpachtgever) </t>
-  </si>
-  <si>
-    <t>aflopende erfpachtcontracten</t>
-  </si>
-  <si>
-    <t>publiekrechtelijke beperkingen + stuk</t>
-  </si>
-  <si>
-    <t>privaatrechtelijke beperkingen vinden van een kadastraal roerende zaak + stuk</t>
-  </si>
-  <si>
-    <t>publiekrechtelijke beperkingen vinden van een kadastraal roerende zaak +stuk</t>
-  </si>
-  <si>
-    <t>beslagleggingen vinden en inzien</t>
-  </si>
-  <si>
-    <t>beslagleggingen +stuk</t>
-  </si>
-  <si>
-    <t>beslagleggingen + stuk</t>
-  </si>
-  <si>
-    <t>B+5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B+6. raadpleeg publiekrechtelijke beperkingen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B+7. raadpleeg privaatrechtelijke beperkingen </t>
-  </si>
-  <si>
-    <t>B+8. raadpleeg beslagleggingen</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -433,7 +542,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(zoeken verblijfsobject, ligplaats, standplaats buiten scope) </t>
+      <t xml:space="preserve">(zoeken nummeraanduiding, verblijfsobject, ligplaats, standplaats buiten scope) </t>
     </r>
     <r>
       <rPr>
@@ -447,98 +556,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">koopsommen met bijbehorend koopjaar vinden </t>
-  </si>
-  <si>
-    <t>C. zoek Kadastraal roerende Zaak</t>
-  </si>
-  <si>
-    <t>C+1. zoek eigenaren van KOZ</t>
-  </si>
-  <si>
-    <t>C+2. zoek zakelijk gerechtigden van KOZ</t>
-  </si>
-  <si>
-    <t>C+3. zoek zekerheidsstellingen (+ hypotheekverstrekker + stukdeel) van KOZ</t>
-  </si>
-  <si>
-    <t>D. zoek het eigendomsrecht en de tenaamstelling van Kadastraal Onroerende Zaken in een Pand</t>
-  </si>
-  <si>
-    <t>F. zoek de VVE's in een Pand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G. Zoek koopsommen met koopjaar </t>
-  </si>
-  <si>
-    <t>invoeren gemeente of invoeren contour+ periode VanTotEnMet</t>
-  </si>
-  <si>
-    <t>koopsommen + bijbehorende koopjaren</t>
-  </si>
-  <si>
-    <t>koopsommen met koopjaren vinden</t>
-  </si>
-  <si>
-    <t>BUS37</t>
-  </si>
-  <si>
-    <t>BUS30</t>
-  </si>
-  <si>
-    <t>BUS25</t>
-  </si>
-  <si>
-    <t>BUS23</t>
-  </si>
-  <si>
-    <t>BUS22</t>
-  </si>
-  <si>
-    <t>BUS20</t>
-  </si>
-  <si>
-    <t>BUS19</t>
-  </si>
-  <si>
-    <t>BUS18</t>
-  </si>
-  <si>
-    <t>BUS16/hypotheek</t>
-  </si>
-  <si>
-    <t>BUS15 makelaar</t>
-  </si>
-  <si>
-    <t>BUS14</t>
-  </si>
-  <si>
-    <t>BUS9</t>
-  </si>
-  <si>
-    <t>BUS7</t>
-  </si>
-  <si>
-    <t>zekerheidsstellingen hypotheekschulden vinden</t>
-  </si>
-  <si>
-    <t>A+4 zoek zekerheidsstellingen hypotheekgever</t>
-  </si>
-  <si>
-    <t>kadastrale objecten met een zekerheidsstelling door hyotheekgever</t>
-  </si>
-  <si>
-    <t>zekerheidsstellingen van hypotheekschulden vinden</t>
-  </si>
-  <si>
-    <t>BUS4</t>
-  </si>
-  <si>
-    <t>BUS2</t>
-  </si>
-  <si>
     <r>
-      <t>Eigenschappen raadplegen van KOZ (aannduiding, identificatie, adressen, grenzen, type, bouwjaar, kadastrale kaart</t>
+      <t>Eigenschappen raadplegen van KOZ (aanduiding, identificatie, adressen, grenzen, type, bouwjaar, kadastrale kaart</t>
     </r>
     <r>
       <rPr>
@@ -571,35 +590,50 @@
     </r>
   </si>
   <si>
-    <t>E. zoek het eigendomsrecht en de tenaamstelling van Kadastraal Onroerende Zaken in een Gebied
- (eerst via de locatieserver wordt op basis van de contour een collectie KOZ-id's opgehaald en die zijn input voor de bevraging. )</t>
-  </si>
-  <si>
-    <t>PRIO</t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaak</t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaak/eigenaren</t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaak/zakelijkGerechtigden</t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaak/hypotheken</t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaak/zakelijkeRechten/aktes
-/KadastraalOnroerendeZaak/hypotheken/aktes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convenience: /KadastraalOnroerendeZaak/PrivaatrechtelijkeBeperkingen
-Via /KadastraalOnroerendeZaak/zakelijkrechten/privaatrechtelijkebeperking. </t>
-  </si>
-  <si>
-    <t>/KadastraalOnroerendeZaak/beslagleggingen
-/KadastraalOnroerendeZaak/beslagleggingen/aktes</t>
+    <r>
+      <t>/kadastraalOnroerendezaken/{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kadastraleAanduiding}/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eigenaren</t>
+    </r>
+  </si>
+  <si>
+    <t>/kadastraalOnroerendeZaken/{kadastraleAanduiding}/zakelijkGerechtigden</t>
+  </si>
+  <si>
+    <t>/KadastraalOnroerendeZaken/hypotheken</t>
+  </si>
+  <si>
+    <t>/KadastraalOnroerendeZaken/{kadastraleAanduiding}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/KadastraalOnroerendeZaken/{kadastraleAanduiding}/PrivaatrechtelijkeBeperkingen
+</t>
+  </si>
+  <si>
+    <t>/KadastraalOnroerendeZaken/{kadastraleAanduiding}/beslagleggingen
+/KadastraalOnroerendeZaken/{kadastraleAanduiding}/beslagleggingen/aktes</t>
+  </si>
+  <si>
+    <t>/KadastraalOnroerendeZaken/{kadastraleAanduiding}/ZakelijkGerechtigden/aktes
+/KadastraalOnroerendeZaken/{kadastraleAanduiding}/hypotheken/aktes</t>
   </si>
 </sst>
 </file>
@@ -643,7 +677,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +702,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -681,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -717,6 +757,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1062,45 +1105,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4176BF7-E49A-487A-88AA-BEDDF16313F5}">
   <dimension ref="A1:AR39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="82" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
-    <col min="2" max="2" width="47.703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="47.64453125" style="9" customWidth="1"/>
     <col min="3" max="3" width="31.87890625" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.1171875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.29296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.64453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="44" width="6.703125" style="2" customWidth="1"/>
+    <col min="8" max="44" width="6.64453125" style="2" customWidth="1"/>
     <col min="45" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
@@ -1142,16 +1185,16 @@
     <row r="3" spans="1:44" ht="100.35" x14ac:dyDescent="0.5">
       <c r="C3" s="5"/>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="2">
         <v>35</v>
@@ -1177,16 +1220,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2">
         <v>83</v>
@@ -1201,19 +1244,19 @@
         <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="N4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="Q4" s="2">
         <v>35</v>
@@ -1231,84 +1274,84 @@
         <v>164</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2">
         <v>6</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="I6" s="1">
         <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="8" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1316,19 +1359,19 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="H8" s="8">
         <v>170</v>
@@ -1339,19 +1382,19 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="H9" s="8">
         <v>130</v>
@@ -1364,19 +1407,19 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="H10" s="8">
         <v>81</v>
@@ -1393,16 +1436,16 @@
     <row r="12" spans="1:44" ht="143.35" x14ac:dyDescent="0.5">
       <c r="C12" s="5"/>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" s="2">
         <v>34</v>
@@ -1421,29 +1464,29 @@
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>148</v>
+      <c r="B13" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="J13" s="2">
         <v>118</v>
@@ -1452,10 +1495,10 @@
         <v>43</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N13" s="2">
         <v>127</v>
@@ -1470,36 +1513,36 @@
         <v>28</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:44" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="9">
         <v>1</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>147</v>
+      <c r="B14" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="H14" s="2">
         <v>43</v>
@@ -1541,28 +1584,28 @@
         <v>116</v>
       </c>
       <c r="U14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V14" s="2" t="s">
+      <c r="X14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="Y14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="AC14" s="2">
         <v>164</v>
@@ -1580,13 +1623,13 @@
         <v>159</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK14" s="2">
         <v>37</v>
@@ -1597,28 +1640,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="H15" s="2">
         <v>75</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J15" s="2">
         <v>75</v>
@@ -1627,33 +1670,33 @@
         <v>67</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:44" s="8" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="9">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>146</v>
+      <c r="B16" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="8">
         <v>126</v>
@@ -1689,10 +1732,10 @@
         <v>28</v>
       </c>
       <c r="S16" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -1702,22 +1745,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" s="2">
         <v>135</v>
@@ -1729,36 +1772,36 @@
         <v>29</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="N17" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C18" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="H18" s="2">
         <v>133</v>
@@ -1770,30 +1813,30 @@
         <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="9">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>151</v>
+      <c r="B19" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="2">
         <v>132</v>
@@ -1811,7 +1854,7 @@
         <v>31</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
@@ -1819,31 +1862,31 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="2">
         <v>68</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.5">
@@ -1873,33 +1916,33 @@
     </row>
     <row r="28" spans="1:16" ht="86" x14ac:dyDescent="0.5">
       <c r="D28" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C29" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H29" s="2">
         <v>119</v>
@@ -1911,88 +1954,88 @@
         <v>73</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O29" s="2">
         <v>77</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C31" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31" s="2">
         <v>75</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="86.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C36" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H36" s="2">
         <v>82</v>
@@ -2015,19 +2058,19 @@
     </row>
     <row r="37" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C37" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H37" s="2">
         <v>171</v>
@@ -2049,19 +2092,19 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="H38" s="8">
         <v>123</v>
@@ -2099,30 +2142,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="23.29296875" customWidth="1"/>
+    <col min="1" max="1" width="23.3515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="114.7" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="F1" s="9">
         <v>45</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2131,6 +2174,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2139,7 +2188,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D335A3EEB563A24EB7D992071ECFB07C" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="99abf22a99d22fcb10846c9edc98e9cb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff" xmlns:ns4="440e0acd-8877-4043-b1d6-a780d5cbc608" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="211b7509dba88216c68295d8fff763df" ns3:_="" ns4:_="">
     <xsd:import namespace="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
@@ -2336,13 +2385,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABFADEB-285D-4547-8543-4E89939D3C55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2350,8 +2410,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC78441B-984A-4A99-9D14-78D86413B7B6}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30031F16-04CC-46B1-94E6-59C87F1C80D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2367,21 +2427,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4DC96D6-6D05-4F03-A098-90EB0CD5BFBC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f8e7e4a6-aeb8-4d0b-892d-54d9084aa7ff"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="440e0acd-8877-4043-b1d6-a780d5cbc608"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>